--- a/working_data/function_5_data.xlsx
+++ b/working_data/function_5_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="8">
   <si>
     <t>X_1</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1361,6 +1361,46 @@
         <v>7</v>
       </c>
     </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>0.306122</v>
+      </c>
+      <c r="B49">
+        <v>0.938775</v>
+      </c>
+      <c r="C49">
+        <v>0.959183</v>
+      </c>
+      <c r="D49">
+        <v>0.8775500000000001</v>
+      </c>
+      <c r="E49">
+        <v>2159.806912870896</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>0.326122</v>
+      </c>
+      <c r="B50">
+        <v>0.928775</v>
+      </c>
+      <c r="C50">
+        <v>0.949183</v>
+      </c>
+      <c r="D50">
+        <v>0.85755</v>
+      </c>
+      <c r="E50">
+        <v>1885.647376893197</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working_data/function_5_data.xlsx
+++ b/working_data/function_5_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="8">
   <si>
     <t>X_1</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1401,6 +1401,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>0.310122</v>
+      </c>
+      <c r="B51">
+        <v>0.941775</v>
+      </c>
+      <c r="C51">
+        <v>0.961183</v>
+      </c>
+      <c r="D51">
+        <v>0.85755</v>
+      </c>
+      <c r="E51">
+        <v>2076.045710210585</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working_data/function_5_data.xlsx
+++ b/working_data/function_5_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="8">
   <si>
     <t>X_1</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1421,6 +1421,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>0.206122</v>
+      </c>
+      <c r="B52">
+        <v>0.838775</v>
+      </c>
+      <c r="C52">
+        <v>0.859183</v>
+      </c>
+      <c r="D52">
+        <v>0.77755</v>
+      </c>
+      <c r="E52">
+        <v>627.9649762889109</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working_data/function_5_data.xlsx
+++ b/working_data/function_5_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="8">
   <si>
     <t>X_1</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1441,6 +1441,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>0.256122</v>
+      </c>
+      <c r="B53">
+        <v>0.888775</v>
+      </c>
+      <c r="C53">
+        <v>0.909183</v>
+      </c>
+      <c r="D53">
+        <v>0.82755</v>
+      </c>
+      <c r="E53">
+        <v>1214.422045098607</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
